--- a/data/trans_camb/P12B1_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12B1_2_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,24</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 31,53</t>
+          <t>-10,89; 6,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,55; 23,43</t>
+          <t>-10,16; 8,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 31,38</t>
+          <t>-11,84; 4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 44,82</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 20,27</t>
+          <t>0,0; 9,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 25,23</t>
+          <t>0,0; 10,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 5,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 5,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 3,77</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-23,69%</t>
+          <t>-31,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,43%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,88%</t>
+          <t>-50,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,39%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-3,81%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 165,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,71; 126,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,96; 292,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 432,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 103,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 125,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,8; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-85,73; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 39,37</t>
+          <t>0,05; 6,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 40,35</t>
+          <t>-1,64; 0,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 31,78</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 27,47</t>
+          <t>-3,34; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 26,21</t>
+          <t>-3,33; 3,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 25,35</t>
+          <t>-4,08; 2,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 3,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 1,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 2,88</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>109,43%</t>
+          <t>504,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>-20,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>400,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>-33,78%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -871,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,57; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 149,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 121,48</t>
+          <t>-78,1; 298,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 167,72</t>
+          <t>-78,49; 322,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 167,9</t>
+          <t>-87,46; 210,18</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; 389,61</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-76,91; 232,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-58,98; 305,22</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-30,79</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 14,79</t>
+          <t>-8,28; 1,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 32,09</t>
+          <t>-4,41; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 45,09</t>
+          <t>-5,04; 7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 34,79</t>
+          <t>-1,6; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 19,37</t>
+          <t>-1,67; 2,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 30,02</t>
+          <t>-0,57; 5,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 1,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 3,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 4,55</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-51,68%</t>
+          <t>-59,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>106,44%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,87%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>161,18%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-36,07%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24,91%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46,11%</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,44; 44,59</t>
+          <t>-100,0; 138,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,41; 103,51</t>
+          <t>-67,37; 335,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,32; 327,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,19 +1243,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 99,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 187,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-83,56; 90,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-54,2; 273,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-47,37; 337,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 19,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 23,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 21,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 23,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 16,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 89,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 115,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 111,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,32; 112,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 61,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 72,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 2,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 2,52</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 3,48</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 2,38</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 2,42</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,63</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 1,63</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 1,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-64,1; 159,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-63,57; 151,77</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-54,26; 193,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-60,55; 280,09</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-54,84; 301,66</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-53,66; 312,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-45,76; 101,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,42; 128,28</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,55; 157,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
